--- a/biology/Médecine/1270_en_santé_et_médecine/1270_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1270_en_santé_et_médecine/1270_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1270_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1270_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1270 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1270_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1270_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>12 juillet : fondation à Naples par le roi Charles Ier d'Anjou de l'hôpital Sant’Eligio al Mercato[1].
-Fondation à Damas et Alep, en Syrie, d'hôpitaux pour les malades atteints de troubles mentaux[2].
-Fondation de la léproserie de Tirlemont dans le duché de Brabant, et de celle d'Amay dans la principauté de Liège[3].
-Fondation à Rouffach en Alsace par Jacques de Rathsamhausen d'un hospice du Saint-Esprit destiné à recevoir « les malades miséreux et les enfants trouvés[4],[5],[6] ».
-Fondation de l'hôpital du Saint-Esprit à Vaucouleurs en Lorraine par Geoffroy, seigneur du lieu et frère du Joinville chroniqueur de Louis IX[7].
-La léproserie qui est à l'origine de l'hôpital Saint-Pierre de Bruxelles est placée sous la protection de Jean Ier, duc de Brabant[8].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>12 juillet : fondation à Naples par le roi Charles Ier d'Anjou de l'hôpital Sant’Eligio al Mercato.
+Fondation à Damas et Alep, en Syrie, d'hôpitaux pour les malades atteints de troubles mentaux.
+Fondation de la léproserie de Tirlemont dans le duché de Brabant, et de celle d'Amay dans la principauté de Liège.
+Fondation à Rouffach en Alsace par Jacques de Rathsamhausen d'un hospice du Saint-Esprit destiné à recevoir « les malades miséreux et les enfants trouvés ».
+Fondation de l'hôpital du Saint-Esprit à Vaucouleurs en Lorraine par Geoffroy, seigneur du lieu et frère du Joinville chroniqueur de Louis IX.
+La léproserie qui est à l'origine de l'hôpital Saint-Pierre de Bruxelles est placée sous la protection de Jean Ier, duc de Brabant.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1270_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1270_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +560,14 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Vers 1270 :
-Bernat de Berriac (mort en 1348), médecin catalan, traducteur de la Chirurgia de Théodoric, archiatre des rois de Majorque[9].
-Mondino de Luzzi (mort en 1326), médecin italien, auteur d'une Anathomia achevée en 1316, où il affirme avoir disséqué le cadavre de deux femmes, en janvier et mars 1315[10].
-Vers 1270-1280 : Muhammad al-Shafra (es) (mort en 1360), chirurgien arabe, né en Espagne, probablement à Crevillente[11],[12].</t>
+Bernat de Berriac (mort en 1348), médecin catalan, traducteur de la Chirurgia de Théodoric, archiatre des rois de Majorque.
+Mondino de Luzzi (mort en 1326), médecin italien, auteur d'une Anathomia achevée en 1316, où il affirme avoir disséqué le cadavre de deux femmes, en janvier et mars 1315.
+Vers 1270-1280 : Muhammad al-Shafra (es) (mort en 1360), chirurgien arabe, né en Espagne, probablement à Crevillente,.</t>
         </is>
       </c>
     </row>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1270_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1270_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,10 +595,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chen Ziming (né vers 1190), médecin chinois, auteur, en 1237, du Fu Ren Da Quan Liang Fang (« Recueil complet des prescriptions utiles aux femmes[13] »).
-1269[14] ou 1270[15] : Ibn Abi Usaybi'a (né entre 1194[15] et 1203[14]), médecin et historien de la médecine du Moyen-Orient.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chen Ziming (né vers 1190), médecin chinois, auteur, en 1237, du Fu Ren Da Quan Liang Fang (« Recueil complet des prescriptions utiles aux femmes »).
+1269 ou 1270 : Ibn Abi Usaybi'a (né entre 1194 et 1203), médecin et historien de la médecine du Moyen-Orient.
 </t>
         </is>
       </c>
